--- a/Examples/tio/tior_model.xlsx
+++ b/Examples/tio/tior_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26BA81E-7058-44B7-AF4A-84441E9AE1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1E1B7-E7CE-4BC1-B31F-66AB82965237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="315" windowWidth="24390" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$5</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$B$5</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -8932,7 +8932,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -9148,14 +9148,14 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -9184,13 +9184,13 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -9201,13 +9201,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -9218,13 +9218,13 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -9235,13 +9235,13 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -9257,7 +9257,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
